--- a/PlanPracy/TODO.xlsx
+++ b/PlanPracy/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programowanie\GitHub_Repositories\ReflexMeasurement2\PlanPracy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAF022E9-B9F1-4F92-8B91-343BB6E85FA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15D5D42-25AF-4109-B90E-1B458CF25CCF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{900A5F59-B85E-49F7-9FF9-585E827D5216}"/>
   </bookViews>
@@ -31,9 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>weerr</t>
+  </si>
+  <si>
+    <t>Lukasz</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <dimension ref="D4:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +532,9 @@
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>

--- a/PlanPracy/TODO.xlsx
+++ b/PlanPracy/TODO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programowanie\GitHub_Repositories\ReflexMeasurement2\PlanPracy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\teamProgramming\ReflexMeasurement\PlanPracy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAF022E9-B9F1-4F92-8B91-343BB6E85FA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3DD7DB-F1FB-47C6-ABE4-4A26DDAE094F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{900A5F59-B85E-49F7-9FF9-585E827D5216}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{900A5F59-B85E-49F7-9FF9-585E827D5216}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>weerr</t>
+  </si>
+  <si>
+    <t>wyjść na dwór</t>
+  </si>
+  <si>
+    <t>odejść od kompa</t>
+  </si>
+  <si>
+    <t>ale ładna pogoda</t>
   </si>
 </sst>
 </file>
@@ -475,16 +484,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F00F03-F210-4743-9E96-098542A62216}">
-  <dimension ref="D4:N33"/>
+  <dimension ref="A2:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -497,7 +520,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
         <v>0</v>
@@ -512,7 +535,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -525,7 +548,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -538,7 +561,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -551,7 +574,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -564,7 +587,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -577,7 +600,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -590,7 +613,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -603,7 +626,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -616,7 +639,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -629,7 +652,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -642,7 +665,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -655,7 +678,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -668,7 +691,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -681,7 +704,7 @@
       <c r="M19" s="5"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -694,7 +717,7 @@
       <c r="M20" s="5"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -707,7 +730,7 @@
       <c r="M21" s="5"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -720,7 +743,7 @@
       <c r="M22" s="5"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -733,7 +756,7 @@
       <c r="M23" s="5"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -746,7 +769,7 @@
       <c r="M24" s="5"/>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -759,7 +782,7 @@
       <c r="M25" s="5"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -772,7 +795,7 @@
       <c r="M26" s="5"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -785,7 +808,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -798,7 +821,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -811,7 +834,7 @@
       <c r="M29" s="5"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -824,7 +847,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -837,7 +860,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -850,7 +873,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
